--- a/app/storage/files/ig.xlsx
+++ b/app/storage/files/ig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" activeTab="1"/>
@@ -863,7 +863,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1312,6 +1312,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1624,7 +1625,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1780,7 +1780,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2136,12 +2135,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="570300392"/>
-        <c:axId val="570148680"/>
+        <c:axId val="2116258200"/>
+        <c:axId val="2116261496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="570300392"/>
+        <c:axId val="2116258200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,7 +2158,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="570148680"/>
+        <c:crossAx val="2116261496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2167,7 +2166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="570148680"/>
+        <c:axId val="2116261496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,7 +2194,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="570300392"/>
+        <c:crossAx val="2116258200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2358,12 +2357,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="pyramid"/>
-        <c:axId val="570160744"/>
-        <c:axId val="569714024"/>
+        <c:axId val="2116324904"/>
+        <c:axId val="2116328152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="570160744"/>
+        <c:axId val="2116324904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,7 +2380,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="569714024"/>
+        <c:crossAx val="2116328152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2389,7 +2388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="569714024"/>
+        <c:axId val="2116328152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,7 +2416,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="570160744"/>
+        <c:crossAx val="2116324904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4002,7 +4001,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" orientation="landscape" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4020,8 +4018,8 @@
   <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <pane ySplit="9" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4732,7 +4730,7 @@
         <f>$D$18*J$14</f>
         <v>0</v>
       </c>
-      <c r="K17" s="179">
+      <c r="K17" s="198">
         <f>SUM(F17:J17)</f>
         <v>60000</v>
       </c>
@@ -5571,7 +5569,7 @@
       </c>
       <c r="G38" s="101"/>
       <c r="H38" s="74">
-        <f>$D$16-$H$28-$H$32-$K$17-$V$20</f>
+        <f>$D$16-$H$28-$H$32-$K$17</f>
         <v>26225.638399999996</v>
       </c>
       <c r="I38" s="57"/>
@@ -6158,7 +6156,7 @@
       <formula>NOT(ISERROR(SEARCH("Making a loss",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="268" yWindow="385" count="2">
+  <dataValidations disablePrompts="1" xWindow="268" yWindow="385" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12">
       <formula1>$M$4:$M$5</formula1>
     </dataValidation>
@@ -6167,7 +6165,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="39" orientation="landscape"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
